--- a/Server/PMS-Server/PMS-Server.core/API Document.xlsx
+++ b/Server/PMS-Server/PMS-Server.core/API Document.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Function Category</t>
   </si>
@@ -48,6 +48,40 @@
   </si>
   <si>
     <t>ETC</t>
+  </si>
+  <si>
+    <t>파싱된 학교 정보</t>
+  </si>
+  <si>
+    <t>학사일정 조회</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/schedule</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>year: int
+month: int
+day: int</t>
+  </si>
+  <si>
+    <t>value: String</t>
+  </si>
+  <si>
+    <t>급식 정보 조회</t>
+  </si>
+  <si>
+    <t>/meal</t>
+  </si>
+  <si>
+    <t>breakfast: JsonArray
+lunch: JsonArray
+dinner: JsonArray</t>
   </si>
 </sst>
 </file>
@@ -92,7 +126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -136,6 +170,82 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Server/PMS-Server/PMS-Server.core/API Document.xlsx
+++ b/Server/PMS-Server/PMS-Server.core/API Document.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Function Category</t>
   </si>
@@ -50,6 +50,63 @@
     <t>ETC</t>
   </si>
   <si>
+    <t>학부모</t>
+  </si>
+  <si>
+    <t>회원가입 ID 중복체크</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/idcheck/parent</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>id: String</t>
+  </si>
+  <si>
+    <t>중복된 id일 경우 204</t>
+  </si>
+  <si>
+    <t>학생 추가</t>
+  </si>
+  <si>
+    <t>/add_student</t>
+  </si>
+  <si>
+    <t>uid: String</t>
+  </si>
+  <si>
+    <t>uid가 존재하지 않을 경우 204</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
+    <t>/signup/parent</t>
+  </si>
+  <si>
+    <t>uid: String
+id: String
+pw: String</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>/signin/parent</t>
+  </si>
+  <si>
+    <t>id: String
+pw: String</t>
+  </si>
+  <si>
+    <t>로그인 실패 시 204</t>
+  </si>
+  <si>
     <t>파싱된 학교 정보</t>
   </si>
   <si>
@@ -60,9 +117,6 @@
   </si>
   <si>
     <t>/schedule</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>year: int
@@ -126,7 +180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -187,10 +241,10 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
       <c r="H2" t="n">
         <v>200.0</v>
@@ -199,13 +253,13 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="L2" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -225,24 +279,176 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
       <c r="H3" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="n">
         <v>200.0</v>
       </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.0</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Server/PMS-Server/PMS-Server.core/API Document.xlsx
+++ b/Server/PMS-Server/PMS-Server.core/API Document.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>Function Category</t>
   </si>
@@ -71,16 +71,17 @@
     <t>중복된 id일 경우 204</t>
   </si>
   <si>
-    <t>학생 추가</t>
-  </si>
-  <si>
-    <t>/add_student</t>
-  </si>
-  <si>
-    <t>uid: String</t>
-  </si>
-  <si>
-    <t>uid가 존재하지 않을 경우 204</t>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>/signin/parent</t>
+  </si>
+  <si>
+    <t>id: String
+pw: String</t>
+  </si>
+  <si>
+    <t>로그인 실패 시 204</t>
   </si>
   <si>
     <t>회원가입</t>
@@ -94,29 +95,28 @@
 pw: String</t>
   </si>
   <si>
-    <t>로그인</t>
-  </si>
-  <si>
-    <t>/signin/parent</t>
-  </si>
-  <si>
-    <t>id: String
-pw: String</t>
-  </si>
-  <si>
-    <t>로그인 실패 시 204</t>
+    <t>uid가 존재하지 않을 경우 204</t>
+  </si>
+  <si>
+    <t>학생 추가</t>
+  </si>
+  <si>
+    <t>/add_student</t>
+  </si>
+  <si>
+    <t>uid: String</t>
   </si>
   <si>
     <t>파싱된 학교 정보</t>
   </si>
   <si>
-    <t>학사일정 조회</t>
+    <t>급식 정보 조회</t>
   </si>
   <si>
     <t>GET</t>
   </si>
   <si>
-    <t>/schedule</t>
+    <t>/meal</t>
   </si>
   <si>
     <t>year: int
@@ -124,18 +124,24 @@
 day: int</t>
   </si>
   <si>
-    <t>value: String</t>
-  </si>
-  <si>
-    <t>급식 정보 조회</t>
-  </si>
-  <si>
-    <t>/meal</t>
-  </si>
-  <si>
     <t>breakfast: JsonArray
 lunch: JsonArray
 dinner: JsonArray</t>
+  </si>
+  <si>
+    <t>학사일정 조회</t>
+  </si>
+  <si>
+    <t>/schedule</t>
+  </si>
+  <si>
+    <t>value: String</t>
+  </si>
+  <si>
+    <t>미정</t>
+  </si>
+  <si>
+    <t>/homecommu</t>
   </si>
 </sst>
 </file>
@@ -180,7 +186,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -279,13 +285,13 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
@@ -335,7 +341,7 @@
         <v>204.0</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -343,25 +349,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -373,7 +379,7 @@
         <v>204.0</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -450,6 +456,44 @@
       </c>
       <c r="L7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Server/PMS-Server/PMS-Server.core/API Document.xlsx
+++ b/Server/PMS-Server/PMS-Server.core/API Document.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>Function Category</t>
   </si>
@@ -53,41 +53,16 @@
     <t>학부모</t>
   </si>
   <si>
-    <t>회원가입 ID 중복체크</t>
+    <t>회원가입</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>/idcheck/parent</t>
+    <t>/signup/parent</t>
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>id: String</t>
-  </si>
-  <si>
-    <t>중복된 id일 경우 204</t>
-  </si>
-  <si>
-    <t>로그인</t>
-  </si>
-  <si>
-    <t>/signin/parent</t>
-  </si>
-  <si>
-    <t>id: String
-pw: String</t>
-  </si>
-  <si>
-    <t>로그인 실패 시 204</t>
-  </si>
-  <si>
-    <t>회원가입</t>
-  </si>
-  <si>
-    <t>/signup/parent</t>
   </si>
   <si>
     <t>uid: String
@@ -98,6 +73,31 @@
     <t>uid가 존재하지 않을 경우 204</t>
   </si>
   <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>/signin/parent</t>
+  </si>
+  <si>
+    <t>id: String
+pw: String</t>
+  </si>
+  <si>
+    <t>로그인 실패 시 204</t>
+  </si>
+  <si>
+    <t>회원가입 ID 중복체크</t>
+  </si>
+  <si>
+    <t>/idcheck/parent</t>
+  </si>
+  <si>
+    <t>id: String</t>
+  </si>
+  <si>
+    <t>중복된 id일 경우 204</t>
+  </si>
+  <si>
     <t>학생 추가</t>
   </si>
   <si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>/homecommu</t>
+  </si>
+  <si>
+    <t>/homecommu/question</t>
   </si>
 </sst>
 </file>
@@ -186,7 +189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -253,7 +256,7 @@
         <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
@@ -329,7 +332,7 @@
         <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
@@ -379,7 +382,7 @@
         <v>204.0</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -493,6 +496,44 @@
         <v>0.0</v>
       </c>
       <c r="L8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Server/PMS-Server/PMS-Server.core/API Document.xlsx
+++ b/Server/PMS-Server/PMS-Server.core/API Document.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
   <si>
     <t>Function Category</t>
   </si>
@@ -53,16 +53,29 @@
     <t>학부모</t>
   </si>
   <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/signin/parent</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>id: String
+pw: String</t>
+  </si>
+  <si>
+    <t>로그인 실패 시 204</t>
+  </si>
+  <si>
     <t>회원가입</t>
   </si>
   <si>
-    <t>POST</t>
-  </si>
-  <si>
     <t>/signup/parent</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>uid: String
@@ -73,17 +86,13 @@
     <t>uid가 존재하지 않을 경우 204</t>
   </si>
   <si>
-    <t>로그인</t>
-  </si>
-  <si>
-    <t>/signin/parent</t>
-  </si>
-  <si>
-    <t>id: String
-pw: String</t>
-  </si>
-  <si>
-    <t>로그인 실패 시 204</t>
+    <t>학생 추가</t>
+  </si>
+  <si>
+    <t>/add_student</t>
+  </si>
+  <si>
+    <t>uid: String</t>
   </si>
   <si>
     <t>회원가입 ID 중복체크</t>
@@ -98,25 +107,16 @@
     <t>중복된 id일 경우 204</t>
   </si>
   <si>
-    <t>학생 추가</t>
-  </si>
-  <si>
-    <t>/add_student</t>
-  </si>
-  <si>
-    <t>uid: String</t>
-  </si>
-  <si>
     <t>파싱된 학교 정보</t>
   </si>
   <si>
-    <t>급식 정보 조회</t>
+    <t>학사일정 조회</t>
   </si>
   <si>
     <t>GET</t>
   </si>
   <si>
-    <t>/meal</t>
+    <t>/schedule</t>
   </si>
   <si>
     <t>year: int
@@ -124,27 +124,27 @@
 day: int</t>
   </si>
   <si>
+    <t>value: String</t>
+  </si>
+  <si>
+    <t>급식 정보 조회</t>
+  </si>
+  <si>
+    <t>/meal</t>
+  </si>
+  <si>
     <t>breakfast: JsonArray
 lunch: JsonArray
 dinner: JsonArray</t>
   </si>
   <si>
-    <t>학사일정 조회</t>
-  </si>
-  <si>
-    <t>/schedule</t>
-  </si>
-  <si>
-    <t>value: String</t>
-  </si>
-  <si>
     <t>미정</t>
   </si>
   <si>
+    <t>/homecommu/question</t>
+  </si>
+  <si>
     <t>/homecommu</t>
-  </si>
-  <si>
-    <t>/homecommu/question</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -256,7 +256,7 @@
         <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
@@ -294,7 +294,7 @@
         <v>21</v>
       </c>
       <c r="H3" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
@@ -326,13 +326,13 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
@@ -344,7 +344,7 @@
         <v>204.0</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -352,25 +352,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
       <c r="H5" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -382,7 +382,7 @@
         <v>204.0</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
@@ -534,6 +534,44 @@
         <v>0.0</v>
       </c>
       <c r="L9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="s">
         <v>39</v>
       </c>
     </row>
